--- a/dist/data/profiles/xlsx/bluff/profile 31-4 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 31-4 graph.xlsx
@@ -17943,11 +17943,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71126411"/>
-        <c:axId val="26592741"/>
+        <c:axId val="59050960"/>
+        <c:axId val="46336763"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71126411"/>
+        <c:axId val="59050960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17982,12 +17982,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26592741"/>
+        <c:crossAx val="46336763"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26592741"/>
+        <c:axId val="46336763"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18031,7 +18031,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71126411"/>
+        <c:crossAx val="59050960"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
